--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="date_series" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="date_series" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1238"/>
+  <dimension ref="A1:A1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,5956 +676,5961 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45657</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45656</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45649</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45645</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45643</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45638</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45637</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45636</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45628</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45624</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45623</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45617</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45614</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45609</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45608</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45600</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45597</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45589</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45586</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45582</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45580</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45579</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45576</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45575</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45574</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45572</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45566</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45565</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45561</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45560</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45559</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45558</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45554</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45553</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45552</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45551</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45545</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45544</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45540</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45534</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45533</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45532</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45531</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45530</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45527</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45526</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45525</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45524</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45523</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45519</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45518</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45517</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45516</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45512</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45510</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45509</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45506</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45505</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45488</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45474</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45471</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45469</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45468</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45464</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45462</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45461</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45460</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45457</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45449</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45448</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45447</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45443</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45439</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45433</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45425</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45422</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45421</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45420</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45418</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45415</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45414</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45408</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45399</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45370</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45366</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45329</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45229</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45226</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45224</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45223</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45219</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45218</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45217</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45215</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45212</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45211</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45210</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45209</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45205</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45201</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45198</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45196</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45195</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45194</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45191</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45187</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45184</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45182</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45177</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45175</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45169</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45168</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45161</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45160</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45128</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45121</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45114</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45107</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45093</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45072</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45065</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45051</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45037</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45023</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45016</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45009</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45002</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44995</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44988</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44981</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44960</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44953</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44945</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44939</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44918</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44897</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44883</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44876</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44869</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44848</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44841</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44834</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44827</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44820</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44813</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44804</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44799</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44792</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44785</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44774</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44771</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44767</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44764</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44760</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44757</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44753</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44750</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44746</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44743</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44739</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44736</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44732</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44729</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44725</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44722</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44718</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44715</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44714</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44711</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44708</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44704</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44701</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44697</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44694</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44692</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44690</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44687</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44685</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44680</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44676</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44673</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44669</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44638</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44627</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44620</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44606</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44603</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44589</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44568</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44567</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44565</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44561</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44554</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44540</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44533</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44526</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44522</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44519</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44515</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44512</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44508</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44505</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44504</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44501</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44498</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44494</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44491</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44473</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44470</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44469</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44466</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44463</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44449</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44445</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44438</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44431</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44424</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44421</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44417</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44414</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44407</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44403</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44396</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44393</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44389</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44386</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44382</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44379</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>44368</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>44351</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>44347</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>44333</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>44321</v>
+        <v>44322</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>44309</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>44295</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>44291</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44288</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>44284</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>44281</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>44277</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>44274</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>44270</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>44264</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>44260</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>44256</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44253</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44246</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>44236</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44232</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44228</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44225</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44221</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44218</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44211</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44207</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44204</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44202</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44201</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44200</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>44193</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44190</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>44186</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44183</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44179</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44176</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>44155</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>44148</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>44141</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>44139</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>44134</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>44130</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>44127</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>44123</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>44120</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>44116</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>44113</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>44112</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>44111</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>44110</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>44109</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>44106</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>44105</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>44104</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>44102</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>44099</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>44095</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>44088</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>44081</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>44075</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>44074</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>44067</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>44060</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44053</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44039</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>44032</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>44025</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43987</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43983</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43980</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43973</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43962</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43950</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43948</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43945</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43938</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43934</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43931</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
         <v>43922</v>
       </c>
     </row>

--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="date_series" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="date_series" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1239"/>
+  <dimension ref="A1:A1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6191 +446,6196 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45729</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45723</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45722</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45721</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45720</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45719</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45714</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45713</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45707</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45706</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45705</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45691</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45681</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45679</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45678</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45677</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45674</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45673</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45672</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45666</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45665</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45664</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45663</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45660</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45659</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45658</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45657</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45656</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45649</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45645</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45643</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45638</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45637</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45636</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45628</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45624</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45623</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45617</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45614</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45609</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45608</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45600</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45597</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45589</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45586</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45582</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45580</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45579</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45576</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45575</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45574</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45572</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45566</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45565</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45561</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45560</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45559</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45558</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45554</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45553</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45552</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45551</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45545</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45544</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45540</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45534</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45533</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45532</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45531</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45530</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45527</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45526</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45525</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45524</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45523</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45519</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45518</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45517</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45516</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45512</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45510</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45509</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45506</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45505</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45488</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45474</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45471</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45469</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45468</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45464</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45462</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45461</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45460</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45457</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45449</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45448</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45447</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45443</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45439</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45433</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45425</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45422</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45421</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45420</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45418</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45415</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45414</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45408</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45399</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45370</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45366</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45329</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45229</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45226</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45224</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45223</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45219</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45218</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45217</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45215</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45212</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45211</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45210</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45209</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45205</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45201</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45198</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45196</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45195</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45194</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45191</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45187</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45184</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45182</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45177</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45175</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45169</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45168</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45161</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45160</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45128</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45121</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45114</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45107</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45093</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45072</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45065</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45051</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45037</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45023</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45016</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45009</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45002</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44995</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44988</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44981</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44960</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44953</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44945</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44939</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44918</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44897</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44883</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44876</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44869</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44848</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44841</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44834</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44827</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44820</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44813</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44804</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44799</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44792</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44785</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44774</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44771</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44767</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44764</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44760</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44757</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44753</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44750</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44746</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44743</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44739</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44736</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44732</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44729</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44725</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44722</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44718</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44715</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44714</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44711</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44708</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44704</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44701</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44697</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44694</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44692</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44690</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44687</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44685</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44680</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44676</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44673</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44669</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44638</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44627</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44620</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44606</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44603</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44589</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44568</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44567</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44565</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44561</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44554</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44540</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44533</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44526</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44522</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44519</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44515</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44512</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44508</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44505</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44504</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44501</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44498</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44494</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44491</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44473</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44470</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44469</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44466</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44463</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44449</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44445</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44438</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44431</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44424</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44421</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44417</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44414</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44407</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44403</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44396</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44393</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44389</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44386</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44382</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44379</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>44368</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>44351</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>44347</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>44333</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44321</v>
+        <v>44322</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>44309</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44295</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44291</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44288</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>44284</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44281</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>44277</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44274</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44270</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>44264</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44260</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44256</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44253</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44246</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44236</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>44232</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44228</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>44225</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44221</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44218</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44211</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44207</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44204</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44202</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44201</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44200</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44193</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44190</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44186</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44183</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44179</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44176</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>44155</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>44148</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>44141</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>44139</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>44134</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>44130</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>44127</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>44123</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>44120</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>44116</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>44113</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>44112</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>44111</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>44110</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>44109</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>44106</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>44105</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>44104</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>44102</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>44099</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>44095</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>44088</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>44081</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>44075</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>44074</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>44067</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>44060</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44053</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44039</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>44032</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>44025</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43987</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43983</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43980</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43973</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43962</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43950</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43948</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43945</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43938</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43934</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43931</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
         <v>43922</v>
       </c>
     </row>

--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1240"/>
+  <dimension ref="A1:A1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,5961 +681,5956 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45658</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45657</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45656</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45653</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45652</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45651</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45650</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45649</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45646</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45645</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45644</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45643</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45642</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45639</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45638</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45637</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45636</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45635</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45632</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45631</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45630</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45629</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45628</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45625</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45624</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45623</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45622</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45621</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45618</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45617</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45616</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45615</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45614</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45611</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45610</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45609</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45608</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45607</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45604</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45603</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45602</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45601</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45600</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45597</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45596</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45595</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45594</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45593</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45590</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45589</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45588</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45587</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45586</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45583</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45582</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45581</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45580</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45579</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45576</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45575</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45574</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45573</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45572</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45569</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45568</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45567</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45566</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45565</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45562</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45561</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45560</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45559</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45558</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45555</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45554</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45553</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45552</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45551</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45548</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45547</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45546</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45545</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45544</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45541</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45540</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45539</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45534</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45533</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45532</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45531</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45530</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45527</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45526</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45525</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45524</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45523</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45520</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45519</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45518</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45517</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45516</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45513</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45512</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45511</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45510</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45509</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45506</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45505</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45504</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45503</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45502</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45499</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45498</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45497</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45496</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45495</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45492</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45491</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45490</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45489</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45488</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45485</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45484</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45483</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45482</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45481</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45478</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45477</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45476</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45475</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45471</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45470</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45468</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45464</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45463</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45461</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45460</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45454</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45450</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45449</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45447</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45443</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45442</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45440</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45434</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45433</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45432</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45429</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45428</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45427</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45426</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45422</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45421</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45420</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45419</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45414</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45401</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45399</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45394</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45393</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45384</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45383</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45380</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45379</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45378</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45377</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45376</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45373</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45372</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45366</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45365</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45364</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45363</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45362</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45359</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45358</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45357</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45356</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45355</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45352</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45351</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45350</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45349</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45348</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45345</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45344</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45343</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45342</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45341</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45337</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45329</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45328</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45327</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45324</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45323</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45322</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45321</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45320</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45317</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45316</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45315</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45314</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45313</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45310</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45309</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45308</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45307</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45306</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45303</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45293</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45289</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45288</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45287</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45286</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45285</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45282</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45281</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45280</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45279</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45278</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45275</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45274</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45273</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45272</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45271</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45268</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45267</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45266</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45265</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45264</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45261</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45260</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45259</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45258</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45257</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45254</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45252</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45251</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45250</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45247</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45246</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45245</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45244</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45243</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45240</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45239</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45238</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45237</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45236</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45233</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45232</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45231</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45230</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45229</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45226</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45224</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45223</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45222</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45219</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45218</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45217</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45216</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45215</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45212</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45211</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45210</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45209</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45208</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45205</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45202</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45201</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45198</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45195</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45194</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45191</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45190</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45189</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45188</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45187</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45182</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45181</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45180</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45177</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45176</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45175</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45174</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45169</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45168</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45167</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45166</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45163</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45162</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45161</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45160</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45159</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45156</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45155</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45154</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45153</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45152</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45149</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45148</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45147</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45146</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45145</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45142</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45141</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45140</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45139</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45138</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45135</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45133</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45131</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45128</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45127</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45126</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45125</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45124</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45121</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45120</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45119</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45118</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45117</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45114</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45113</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45112</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45111</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45110</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45107</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45106</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45100</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45092</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45078</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45076</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45075</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45072</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45071</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45070</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45069</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45068</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45065</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45064</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45063</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45061</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45057</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45056</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45055</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45054</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45051</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45050</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45044</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45043</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45042</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45041</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45040</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45037</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45036</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45035</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45034</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45033</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45029</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45028</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45027</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45026</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45020</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45019</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45015</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45014</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45013</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45012</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45007</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45006</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45005</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45002</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45001</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44999</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44998</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44995</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44994</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44993</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44992</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44991</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44988</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44987</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44986</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44985</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44984</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44981</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44979</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44978</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44977</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44974</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44973</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44972</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44971</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44970</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44966</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44965</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44964</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44963</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44960</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44959</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44958</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44957</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44956</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44953</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44945</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44943</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44942</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44939</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44938</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44937</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44936</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44935</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44932</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44931</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44930</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44929</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44925</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44924</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44923</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44922</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44921</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44918</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44917</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44916</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44915</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44914</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44911</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44910</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44909</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44908</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44907</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44904</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44903</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44901</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44900</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44897</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44896</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44889</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44887</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44886</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44883</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44882</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44881</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44880</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44876</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44874</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44873</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44872</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44869</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44868</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44867</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44866</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44865</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44861</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44860</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44859</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44855</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44854</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44853</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44852</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44851</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44848</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44847</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44845</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44844</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44839</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44838</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44837</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44834</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44833</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44832</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44831</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44830</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44827</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44826</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44825</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44824</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44823</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44820</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44819</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44818</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44817</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44816</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44813</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44812</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44811</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44810</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44809</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44804</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44803</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44802</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44797</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44796</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44795</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44792</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44791</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44790</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44789</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44788</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44785</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44784</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44783</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44782</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44781</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44778</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44777</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44775</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44774</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44771</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44770</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44768</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44767</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44764</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44763</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44762</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44761</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44760</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44756</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44755</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44754</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44753</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44749</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44748</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44747</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44746</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44743</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44742</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44741</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44740</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44739</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44736</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44735</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44734</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44733</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44732</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44729</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44728</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44727</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44726</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44725</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44722</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44721</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44720</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44719</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44718</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44715</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44714</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44713</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44712</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44711</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44708</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44707</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44706</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44705</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44704</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44700</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44699</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44698</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44697</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44694</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44693</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44691</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44690</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44687</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44686</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44685</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44680</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44679</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44678</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44677</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44676</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44673</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44672</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44671</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44670</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44669</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44666</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44665</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44664</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44663</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44659</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44658</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44657</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44656</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44655</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44651</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44650</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44649</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44648</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44645</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44644</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44643</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44642</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44641</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44637</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44636</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44635</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44634</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44631</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44630</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44629</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44628</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44627</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44624</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44623</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44622</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44621</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44620</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44617</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44616</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44615</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44614</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44613</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44610</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44609</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44608</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44607</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44606</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44603</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44600</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44599</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44589</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44582</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44578</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44573</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44571</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44568</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44566</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44565</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44561</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44560</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44559</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44558</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44557</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44554</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44553</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44552</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44551</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44550</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44546</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44545</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44544</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44543</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44540</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44539</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44538</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44537</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44536</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44533</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44532</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44531</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44530</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44529</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44526</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44525</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44523</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44522</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44519</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44517</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44516</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44515</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44512</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44511</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44510</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44509</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44508</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44504</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44503</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44502</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44501</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44498</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44497</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44496</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44495</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44494</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44490</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44489</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44488</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44487</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44484</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44483</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44482</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44481</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44480</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44477</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44476</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44475</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44474</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44473</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44470</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44469</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44468</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44467</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44466</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44463</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44462</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44461</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44460</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44459</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44456</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44455</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44454</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44452</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44449</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44448</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44447</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44446</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44445</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44440</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44439</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44438</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44435</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44434</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44433</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44432</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44431</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44428</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44427</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44426</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44425</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44424</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44421</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44419</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44418</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44414</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44413</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44412</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44407</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44406</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44405</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44404</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44403</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44399</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44398</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44397</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44396</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44393</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44392</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44391</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44390</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44389</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44386</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44384</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44383</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44379</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44378</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44377</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44376</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>44375</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44372</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>44371</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>44370</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>44369</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44368</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44365</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>44364</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>44362</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44361</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44358</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>44354</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>44349</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>44348</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>44347</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44344</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>44343</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>44342</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>44341</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>44340</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44337</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>44336</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>44335</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>44334</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>44333</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44330</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>44329</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>44328</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>44327</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>44326</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44322</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>44321</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>44320</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>44315</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44314</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>44313</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>44312</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44309</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>44302</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44301</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44300</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>44299</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44298</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44295</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>44294</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>44293</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44292</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44291</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>44288</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>44287</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>44286</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>44285</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44284</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44281</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>44279</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>44278</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44277</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>44272</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44271</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44270</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>44264</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44263</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44260</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>44259</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>44258</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44257</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44256</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44251</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44250</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44249</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>44246</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44244</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44236</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>44235</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>44232</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44230</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44229</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>44228</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44224</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44223</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44222</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44218</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44217</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44216</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44215</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44211</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44210</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44209</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44208</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44207</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44204</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44203</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44202</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44201</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>44196</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44194</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44193</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44190</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>44188</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44187</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44186</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44183</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>44182</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44181</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44180</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44179</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>44176</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>44175</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44174</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44173</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>44169</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>44168</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>44167</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44166</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44165</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>44161</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>44159</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>44158</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>44155</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>44154</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>44153</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>44152</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>44151</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>44148</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>44147</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>44146</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>44145</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>44144</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>44141</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>44140</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>44139</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>44138</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>44137</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>44134</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>44133</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>44132</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>44131</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>44130</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>44127</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>44126</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>44125</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>44124</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>44123</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>44120</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>44119</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>44118</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>44117</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>44116</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>44113</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>44112</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>44111</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>44110</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>44109</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>44106</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>44105</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>44104</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>44103</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>44102</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>44099</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>44098</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>44097</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>44096</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>44095</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>44092</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>44091</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>44090</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>44089</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>44088</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>44085</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>44084</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>44083</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>44082</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>44081</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>44078</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>44077</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>44075</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>44074</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>44071</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>44070</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>44069</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>44068</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>44067</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>44064</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>44063</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>44062</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>44061</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44060</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44057</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44056</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44055</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44054</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44053</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44050</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44049</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44048</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44047</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44046</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44043</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44042</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44041</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44040</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44039</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44036</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>44035</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>44034</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>44033</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>44032</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>44029</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>44028</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>44026</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>44025</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>44022</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>44021</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>44020</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>44019</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>44018</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>44015</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>44014</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>44013</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>44012</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>44011</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>44008</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>44007</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>44006</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>44005</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>44004</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>44001</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>44000</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>43999</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>43998</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43997</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43994</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43993</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43992</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43991</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43990</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43987</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43986</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43985</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43984</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43983</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43976</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43973</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43972</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43969</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43966</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43965</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43964</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43963</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43962</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43959</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43955</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43945</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43942</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43941</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43937</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43935</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43934</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43931</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43929</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43928</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
-        <v>43927</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" s="2" t="n">
         <v>43922</v>
       </c>
     </row>

--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1239"/>
+  <dimension ref="A1:A1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6191 +446,6196 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45730</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45729</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45723</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45722</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45721</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45720</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45719</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45714</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45713</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45707</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45706</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45705</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45691</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45681</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45679</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45678</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45677</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45674</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45673</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45672</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45666</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45665</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45664</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45663</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45660</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45659</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45657</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45656</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45649</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45645</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45643</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45638</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45637</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45636</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45628</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45624</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45623</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45617</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45614</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45609</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45608</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45600</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45597</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45589</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45586</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45582</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45580</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45579</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45576</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45575</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45574</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45572</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45566</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45565</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45561</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45560</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45559</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45558</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45554</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45553</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45552</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45551</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45545</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45544</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45540</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45534</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45533</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45532</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45531</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45530</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45527</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45526</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45525</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45524</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45523</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45519</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45518</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45517</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45516</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45512</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45510</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45509</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45506</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45505</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45488</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45474</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45471</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45469</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45468</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45464</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45462</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45461</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45460</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45457</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45449</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45448</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45447</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45443</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45439</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45433</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45425</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45422</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45421</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45420</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45418</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45415</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45414</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45408</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45399</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45370</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45366</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45329</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45229</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45226</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45224</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45223</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45219</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45218</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45217</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45215</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45212</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45211</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45210</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45209</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45205</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45201</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45198</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45196</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45195</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45194</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45191</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45187</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45184</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45182</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45177</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45175</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45169</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45168</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45161</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45160</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45128</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45121</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45114</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45107</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45093</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45072</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45065</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45051</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45037</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45023</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45016</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45009</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45002</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44995</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44988</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44981</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44960</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44953</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44945</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44939</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44918</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44897</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44883</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44876</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44869</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44848</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44841</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44834</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44827</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44820</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44813</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44804</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44799</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44792</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44785</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44774</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44771</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44767</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44764</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44760</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44757</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44753</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44750</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44746</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44743</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44739</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44736</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44732</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44729</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44725</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44722</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44718</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44715</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44714</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44711</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44708</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44704</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44701</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44697</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44694</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44692</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44690</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44687</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44685</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44680</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44676</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44673</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44669</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44638</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44627</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44620</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44606</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44603</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44589</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44568</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44567</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44565</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44561</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44554</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44540</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44533</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44526</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44522</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44519</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44515</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44512</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44508</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44505</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44504</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44501</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44498</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44494</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44491</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44473</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44470</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44469</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44466</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44463</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44449</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44445</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44438</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44431</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44424</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44421</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44417</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44414</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44407</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44403</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44396</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44393</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44389</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44386</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44382</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44379</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>44368</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>44351</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>44347</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>44333</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44321</v>
+        <v>44322</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>44309</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44295</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44291</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44288</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>44284</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44281</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>44277</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44274</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44270</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>44264</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44260</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44256</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44253</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44246</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44236</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>44232</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44228</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>44225</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44221</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44218</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44211</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44207</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44204</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44202</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44201</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44200</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44193</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44190</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44186</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44183</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44179</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44176</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>44155</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>44148</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>44141</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>44139</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>44134</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>44130</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>44127</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>44123</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>44120</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>44116</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>44113</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>44112</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>44111</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>44110</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>44109</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>44106</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>44105</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>44104</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>44102</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>44099</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>44095</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>44088</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>44081</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>44075</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>44074</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>44067</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>44060</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44053</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44039</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>44032</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>44025</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43987</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43983</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43980</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43973</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43962</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43950</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43948</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43945</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43938</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43934</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43931</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
         <v>43922</v>
       </c>
     </row>

--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1240"/>
+  <dimension ref="A1:A1242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6196 +446,6206 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45733</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45730</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45729</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45728</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45727</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45726</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45723</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45722</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45721</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45720</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45719</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45716</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45715</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45714</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45713</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45712</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45709</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45707</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45706</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45705</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45702</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45701</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45700</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45699</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45698</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45695</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45694</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45693</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45692</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45681</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45680</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45679</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45678</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45677</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45674</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45673</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45672</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45671</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45670</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45667</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45666</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45665</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45664</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45663</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45660</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45659</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45657</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45656</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45653</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45652</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45651</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45650</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45649</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45646</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45645</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45644</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45643</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45642</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45639</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45638</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45637</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45636</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45635</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45632</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45631</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45630</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45629</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45628</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45625</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45624</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45622</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45621</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45618</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45617</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45616</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45615</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45614</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45611</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45610</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45609</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45608</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45607</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45604</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45603</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45602</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45601</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45600</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45597</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45596</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45595</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45594</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45593</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45590</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45589</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45587</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45586</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45583</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45582</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45581</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45580</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45579</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45576</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45575</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45574</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45573</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45572</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45569</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45567</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45566</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45565</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45562</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45561</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45560</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45559</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45558</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45555</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45554</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45553</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45552</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45551</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45548</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45547</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45546</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45545</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45544</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45541</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45540</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45539</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45534</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45533</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45532</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45531</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45530</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45527</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45526</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45525</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45524</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45523</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45520</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45519</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45518</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45517</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45516</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45511</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45510</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45509</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45506</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45505</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45504</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45503</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45502</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45499</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45498</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45497</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45496</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45492</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45491</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45490</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45489</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45485</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45484</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45483</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45482</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45481</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45478</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45477</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45476</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45475</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45471</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45470</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45469</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45468</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45467</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45464</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45463</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45462</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45461</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45460</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45457</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45456</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45455</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45454</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45450</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45449</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45448</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45447</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45446</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45443</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45442</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45441</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45440</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45439</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45435</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45434</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45433</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45432</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45429</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45428</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45427</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45426</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45425</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45422</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45421</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45420</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45419</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45418</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45415</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45414</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45408</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45406</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45405</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45404</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45401</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45399</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45398</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45397</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45394</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45393</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45390</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45386</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45379</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45365</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45343</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45342</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45341</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45329</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45328</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45323</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45321</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45317</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45316</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45314</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45313</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45310</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45308</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45307</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45301</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45296</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45289</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45287</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45286</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45285</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45282</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45281</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45280</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45279</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45278</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45275</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45274</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45273</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45272</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45271</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45268</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45267</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45265</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45264</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45261</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45260</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45259</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45258</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45257</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45254</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45253</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45252</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45251</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45247</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45246</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45245</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45239</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45238</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45237</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45236</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45233</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45231</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45229</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45226</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45225</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45224</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45223</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45222</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45219</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45218</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45217</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45216</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45215</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45212</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45211</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45210</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45209</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45208</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45205</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45204</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45202</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45201</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45198</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45197</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45196</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45195</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45194</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45191</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45190</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45189</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45188</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45187</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45184</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45183</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45180</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45177</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45176</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45174</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45169</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45168</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45167</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45166</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45163</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45162</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45161</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45160</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45159</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45156</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45155</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45154</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45153</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45152</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45149</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45148</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45147</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45146</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45145</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45142</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45141</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45140</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45139</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45138</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45135</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45134</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45133</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45132</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45128</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45127</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45126</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45125</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45124</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45121</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45120</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45119</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45118</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45117</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45114</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45113</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45112</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45111</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45110</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45107</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45106</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45105</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45104</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45103</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45098</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45078</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45077</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45076</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45075</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45072</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45071</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45070</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45069</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45068</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45065</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45064</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45063</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45062</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45061</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45058</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45057</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45056</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45055</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45054</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45051</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45050</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45044</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45043</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45041</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45040</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45037</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45036</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45035</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45034</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45033</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45029</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45028</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45027</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45026</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45021</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45019</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45016</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45015</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45014</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45013</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45012</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45009</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45008</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45007</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45005</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45002</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45001</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45000</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44995</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44994</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44993</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44992</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44987</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44986</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44985</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44984</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44981</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44979</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44977</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44974</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44973</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44972</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44971</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44970</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44967</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44966</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44965</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44964</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44963</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44959</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44958</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44953</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44945</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44944</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44943</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44942</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44939</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44938</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44937</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44936</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44935</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44932</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44931</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44930</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44929</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44925</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44924</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44923</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44922</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44921</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44917</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44916</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44915</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44914</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44909</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44908</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44907</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44904</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44903</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44902</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44901</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44900</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44896</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44895</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44889</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44887</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44883</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44882</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44881</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44880</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44879</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44875</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44874</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44873</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44872</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44868</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44867</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44866</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44865</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44862</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44861</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44860</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44859</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44855</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44854</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44853</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44852</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44851</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44848</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44847</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44846</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44845</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44844</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44841</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44840</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44839</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44838</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44837</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44834</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44833</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44832</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44831</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44830</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44827</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44826</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44825</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44824</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44823</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44819</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44818</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44817</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44816</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44813</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44812</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44811</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44810</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44809</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44804</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44803</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44802</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44799</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44798</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44797</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44796</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44795</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44792</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44791</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44790</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44789</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44788</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44784</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44783</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44782</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44781</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44778</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44777</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44776</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44775</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44774</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44771</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44770</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44769</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44768</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44767</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44764</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44763</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44762</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44761</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44760</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44757</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44756</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44755</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44754</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44753</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44750</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44749</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44748</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44747</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44746</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44742</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44741</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44740</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44739</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44736</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44735</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44734</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44733</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44732</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44728</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44727</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44726</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44725</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44722</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44721</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44720</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44719</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44718</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44715</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44714</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44713</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44712</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44711</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44708</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44707</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44706</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44704</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44701</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44700</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44699</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44698</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44697</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44693</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44692</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44691</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44690</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44687</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44686</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44680</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44679</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44678</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44677</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44676</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44672</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44671</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44670</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44669</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44666</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44664</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44663</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44659</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44658</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44657</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44656</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44655</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44652</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44651</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44650</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44649</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44648</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44645</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44644</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44643</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44642</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44641</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44638</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44637</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44636</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44635</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44634</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44631</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44630</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44629</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44628</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44627</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44624</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44623</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44622</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44621</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44620</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44617</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44616</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44615</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44614</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44613</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44608</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44607</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44606</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44603</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44602</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44601</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44600</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44599</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44589</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44588</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44587</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44586</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44581</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44580</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44579</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44578</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44575</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44574</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44573</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44572</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44571</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44568</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44567</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44566</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44565</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44561</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44560</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44559</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44558</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44557</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44553</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44552</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44551</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44550</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44547</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44546</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44545</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44544</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44543</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44540</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44539</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44538</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44537</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44536</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44533</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44532</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44531</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44530</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44529</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44525</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44523</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44522</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44518</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44517</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44516</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44515</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44512</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44510</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44509</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44508</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44505</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44504</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44503</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44502</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44501</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44498</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44497</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44496</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44495</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44494</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44490</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44489</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44488</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44487</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44482</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44481</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44480</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44475</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44474</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44470</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44468</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44467</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44466</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44461</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44454</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44447</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44446</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44445</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44439</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44438</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44432</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44431</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44425</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44424</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44420</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44419</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44418</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44417</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44413</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44412</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44411</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44410</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44407</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44406</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44405</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44404</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44403</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44400</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44399</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44398</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44397</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44396</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44393</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44392</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44391</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44383</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44382</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44379</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44378</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44377</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44376</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>44375</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>44369</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>44356</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>44355</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>44354</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>44349</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>44335</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>44334</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>44333</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>44321</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>44320</v>
+        <v>44322</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>44315</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>44313</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>44312</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44308</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>44305</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44300</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>44299</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44295</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>44293</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44292</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44291</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>44288</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>44287</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>44286</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>44285</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44284</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44281</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>44280</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>44279</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>44278</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>44272</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44271</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44270</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>44267</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>44266</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>44265</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44263</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44260</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>44259</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>44258</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44257</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44256</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>44253</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>44252</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44251</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44249</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>44246</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>44245</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44244</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44236</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>44235</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>44231</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44230</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44229</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>44228</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>44225</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44224</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44223</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44217</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44216</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44215</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44214</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44211</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44210</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44208</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44207</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44204</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44203</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44202</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44201</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44200</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>44196</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44194</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44193</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44190</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>44188</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44183</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>44182</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44181</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44180</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44179</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>44176</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44174</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44173</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>44172</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>44169</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>44168</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>44162</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>44161</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>44154</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>44152</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>44151</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>44148</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>44147</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>44146</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>44145</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>44144</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>44141</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>44140</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>44139</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>44138</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>44137</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>44134</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>44133</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>44132</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>44130</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>44127</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>44126</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>44125</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>44124</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>44123</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>44120</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>44119</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>44118</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>44117</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>44116</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>44113</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>44112</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>44111</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>44110</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>44109</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>44106</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>44105</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>44104</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>44103</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>44102</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>44099</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>44098</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>44097</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>44096</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>44095</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>44092</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>44091</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>44090</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>44089</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>44088</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>44085</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>44084</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>44083</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>44082</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>44081</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>44078</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>44077</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>44075</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>44071</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>44070</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>44069</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>44068</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>44064</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>44063</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>44062</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>44061</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44060</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44056</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44055</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44054</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44053</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44050</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44049</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44047</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44043</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44042</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44040</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44036</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>44035</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>44034</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>44033</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>44028</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>44027</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>44026</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>44021</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>44020</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>44019</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>44018</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>44015</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>44014</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>44013</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>44012</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>44008</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>44007</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>44006</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>44005</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>44004</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>44001</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>44000</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>43999</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>43998</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43997</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43994</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43993</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43992</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43991</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43990</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43987</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43986</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43985</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43984</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43983</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43980</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43979</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43978</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43976</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43973</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43972</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43970</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43966</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43965</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43950</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43949</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43948</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43945</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43944</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43943</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43942</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43941</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43938</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43937</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43936</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43935</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43934</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43931</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43930</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43929</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43928</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
-        <v>43927</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
-        <v>43924</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
         <v>43922</v>
       </c>
     </row>

--- a/.xlsx/date_series.xlsx
+++ b/.xlsx/date_series.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1242"/>
+  <dimension ref="A1:A1243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6206 +446,6211 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45735</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45734</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45730</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45729</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45723</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45722</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45721</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45720</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45719</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45714</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45713</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45707</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45706</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45705</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45691</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45681</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45680</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45679</v>
+        <v>45680</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45678</v>
+        <v>45679</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45677</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45674</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45673</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45672</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45670</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45666</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45665</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45664</v>
+        <v>45665</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45663</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45660</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45659</v>
+        <v>45660</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45657</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45656</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45652</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45651</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45650</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45649</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45645</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45644</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45643</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45638</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45637</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45636</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45635</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45630</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45628</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45624</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45623</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45617</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45616</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45614</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45609</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45608</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45600</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45597</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45589</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45586</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45582</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45580</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45579</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45576</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45575</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45574</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45572</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45567</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45566</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45565</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45561</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45560</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45559</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45558</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45554</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45553</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45552</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45551</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45545</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45544</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45540</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45534</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45533</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45532</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45531</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45530</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45527</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45526</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45525</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45524</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45523</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45519</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45518</v>
+        <v>45519</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45517</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45516</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45512</v>
+        <v>45513</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45511</v>
+        <v>45512</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45510</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45509</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45506</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45505</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45504</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45488</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45483</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45474</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45471</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45470</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45469</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45468</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45467</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45464</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45463</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45462</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45461</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45460</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45457</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45453</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45450</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45449</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45448</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45447</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45446</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45443</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45439</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45436</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45434</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45433</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45425</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45422</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45421</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45420</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45418</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45415</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45414</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45408</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45399</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45370</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45366</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45329</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45229</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45226</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45224</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45223</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45219</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45218</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45217</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45215</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45212</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45211</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45210</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45209</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45205</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45201</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45198</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45196</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45195</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45194</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45191</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45187</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45184</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45182</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45177</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45176</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45175</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45169</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45168</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45167</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45166</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45163</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45161</v>
+        <v>45162</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45160</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45159</v>
+        <v>45160</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45156</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45155</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45154</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45142</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45135</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45128</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45121</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45114</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45107</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45093</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45072</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45065</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45058</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45051</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45044</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45037</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45030</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45023</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45016</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45009</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45002</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44995</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44988</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44981</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>44960</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>44953</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>44945</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>44939</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>44918</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44897</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44883</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>44876</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>44869</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>44848</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>44841</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>44834</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>44827</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>44820</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>44813</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>44804</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>44799</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>44792</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>44785</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>44774</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>44771</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>44767</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>44764</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>44760</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>44757</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>44753</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>44750</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>44746</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>44743</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44739</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44736</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44732</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44729</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44725</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44722</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>44718</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>44715</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>44714</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>44711</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>44708</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>44704</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>44701</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>44697</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>44694</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>44692</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>44690</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>44687</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>44685</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>44680</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>44676</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>44673</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>44669</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>44666</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>44665</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>44659</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>44638</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>44631</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>44627</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44620</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>44610</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>44606</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44603</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>44589</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>44568</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44567</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44565</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44561</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44554</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>44540</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44533</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44526</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>44522</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44519</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44515</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>44512</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>44508</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>44505</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>44504</v>
+        <v>44505</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>44501</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>44498</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>44494</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>44491</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>44473</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>44470</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44469</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>44466</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44463</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>44449</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44445</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>44438</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>44431</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44424</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>44421</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>44417</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>44414</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>44407</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>44403</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44396</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44393</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44389</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44386</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44382</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44379</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>44368</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>44351</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>44347</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
-        <v>44333</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
-        <v>44321</v>
+        <v>44322</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
-        <v>44309</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
-        <v>44295</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
-        <v>44291</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
-        <v>44288</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
-        <v>44284</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
-        <v>44281</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
-        <v>44277</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
-        <v>44274</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
-        <v>44270</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44264</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
-        <v>44260</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>44256</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44253</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44246</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>44236</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44232</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44228</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44225</v>
+        <v>44228</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44221</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44218</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44211</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44207</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44204</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44202</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>44201</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>44200</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44196</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44193</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>44190</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44189</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>44186</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44183</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44182</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44181</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>44180</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>44179</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44176</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>44155</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>44148</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
-        <v>44141</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
-        <v>44139</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
-        <v>44134</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
-        <v>44130</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
-        <v>44127</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
-        <v>44123</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
-        <v>44120</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
-        <v>44116</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
-        <v>44113</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
-        <v>44112</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
-        <v>44111</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
-        <v>44110</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
-        <v>44109</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>44106</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>44105</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>44104</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>44103</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>44102</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>44099</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>44096</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>44095</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>44089</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>44088</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
-        <v>44082</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
-        <v>44081</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>44075</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>44074</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>44068</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>44067</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44060</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44054</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44053</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
-        <v>44039</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
-        <v>44032</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
-        <v>44025</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
-        <v>43987</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
-        <v>43983</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
-        <v>43980</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
-        <v>43978</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
-        <v>43977</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
-        <v>43976</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
-        <v>43973</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
-        <v>43972</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
-        <v>43962</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
-        <v>43950</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
-        <v>43948</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
-        <v>43945</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>43942</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
-        <v>43938</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
-        <v>43936</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
-        <v>43934</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
-        <v>43931</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
         <v>43922</v>
       </c>
     </row>
